--- a/test_input.xlsx
+++ b/test_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Python\GWI_scrapers\SEC-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00887089-259B-4F3A-AED6-3E0EA086A2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43881A39-AD79-4110-9CBC-2F76902757F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69D01749-94C9-47E5-A7E2-733E0166ECE6}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{69D01749-94C9-47E5-A7E2-733E0166ECE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>https://www.sec.gov/Archives/edgar/data/92116/000105690320000018/awr-20191231x10k_htm.xml</t>
-  </si>
-  <si>
     <t>https://www.sec.gov/Archives/edgar/data/1524472/000152447220000006/xyl1231201910kv1_htm.xml</t>
   </si>
   <si>
@@ -54,10 +51,13 @@
     <t>Xylem</t>
   </si>
   <si>
+    <t>Idex Corporation</t>
+  </si>
+  <si>
+    <t>Financials for this year have not yet been reported.</t>
+  </si>
+  <si>
     <t>American Water</t>
-  </si>
-  <si>
-    <t>Idex Corporation</t>
   </si>
 </sst>
 </file>
@@ -413,41 +413,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
